--- a/Tools/excel2json/excel/DialogExecl/ErenYeager1Dialog.xlsx
+++ b/Tools/excel2json/excel/DialogExecl/ErenYeager1Dialog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28785" windowHeight="12975"/>
+    <workbookView windowWidth="28800" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,8 +56,13 @@
           </rPr>
           <t xml:space="preserve">
 0：对话
-1：选项
-2：end</t>
+1：对话，且有选项
+2：选项
+3：end
+4：表示退出
+注意：
+1.选项不要超过5个
+2.当对话为了为有选项的时候，icon默认为左边。</t>
         </r>
       </text>
     </comment>
@@ -80,7 +85,9 @@
           </rPr>
           <t xml:space="preserve">
 0.左
-1.右</t>
+1.右
+-1 是用来填充的，否则会报错
+</t>
         </r>
       </text>
     </comment>
@@ -134,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
   <si>
     <t>ID</t>
   </si>
@@ -190,7 +197,7 @@
     <t>是否是玩家</t>
   </si>
   <si>
-    <t>对话还是选项</t>
+    <t>对话类型</t>
   </si>
   <si>
     <t>位置</t>
@@ -223,12 +230,16 @@
     <t>三笠，你为什么这么在乎我？</t>
   </si>
   <si>
-    <t>Test:这是一段测试信息1
-Test:这是一段测试信息2</t>
-  </si>
-  <si>
-    <t>Test:这是一段测试信息3
-Test:这是一段测试信息4</t>
+    <t>Texture/Dialog/ErenYeager1Dialog/Eren1.png</t>
+  </si>
+  <si>
+    <t>Audios/UI/Dialog/ErenYeager1Dialog/ErenYeager1Dialog_Eren1.mp3</t>
+  </si>
+  <si>
+    <t>Test:这是一段测试信息1</t>
+  </si>
+  <si>
+    <t>Test:这是一段测试信息2</t>
   </si>
   <si>
     <t>三笠</t>
@@ -237,25 +248,82 @@
     <t>嗯..？</t>
   </si>
   <si>
+    <t>Texture/Dialog/ErenYeager1Dialog/Mikasa1.png</t>
+  </si>
+  <si>
+    <t>Audios/UI/Dialog/ErenYeager1Dialog/ErenYeager1Dialog_Mikasa1.mp3</t>
+  </si>
+  <si>
     <t>因为小时候被我救了吗？还是因为我是你的家人呢？</t>
   </si>
   <si>
-    <t>额..嗯</t>
+    <t>Texture/Dialog/ErenYeager1Dialog/Eren3.png</t>
+  </si>
+  <si>
+    <t>Audios/UI/Dialog/ErenYeager1Dialog/ErenYeager1Dialog_Eren2.mp3</t>
+  </si>
+  <si>
+    <t>额..嗯!</t>
+  </si>
+  <si>
+    <t>Texture/Dialog/ErenYeager1Dialog/Mikasa2.png</t>
+  </si>
+  <si>
+    <t>Audios/UI/Dialog/ErenYeager1Dialog/ErenYeager1Dialog_Mikasa2.mp3</t>
   </si>
   <si>
     <t>我...是你的什么人？</t>
   </si>
   <si>
+    <t>Texture/Dialog/ErenYeager1Dialog/Eren4.png</t>
+  </si>
+  <si>
+    <t>Audios/UI/Dialog/ErenYeager1Dialog/ErenYeager1Dialog_Eren3.mp3</t>
+  </si>
+  <si>
+    <t>嗯！</t>
+  </si>
+  <si>
+    <t>Texture/Dialog/ErenYeager1Dialog/Mikasa3.png</t>
+  </si>
+  <si>
+    <t>Audios/UI/Dialog/ErenYeager1Dialog/ErenYeager1Dialog_Mikasa3.mp3</t>
+  </si>
+  <si>
     <t>你...</t>
   </si>
   <si>
+    <t>Audios/UI/Dialog/ErenYeager1Dialog/ErenYeager1Dialog_Mikasa4.mp3</t>
+  </si>
+  <si>
     <t>你是..</t>
   </si>
   <si>
+    <t>Texture/Dialog/ErenYeager1Dialog/Mikasa4.png</t>
+  </si>
+  <si>
+    <t>Audios/UI/Dialog/ErenYeager1Dialog/ErenYeager1Dialog_Mikasa5.mp3</t>
+  </si>
+  <si>
     <t>爱人!</t>
   </si>
   <si>
     <t>家人..</t>
+  </si>
+  <si>
+    <t>Audios/UI/Dialog/ErenYeager1Dialog/ErenYeager1Dialog_Mikasa7.mp3</t>
+  </si>
+  <si>
+    <t>这世界无比残酷，但我却依然爱着你。</t>
+  </si>
+  <si>
+    <t>Texture/Dialog/ErenYeager1Dialog/End.png</t>
+  </si>
+  <si>
+    <t>PlayBackgroundAudio:Audios/UI/Dialog/ErenYeager1Dialog/ErenYeager1Dialog_End.mp3</t>
+  </si>
+  <si>
+    <t>StopBackgroundAudio:填充</t>
   </si>
 </sst>
 </file>
@@ -1249,10 +1317,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1263,9 +1331,9 @@
     <col min="5" max="5" width="9" style="3"/>
     <col min="6" max="6" width="27.5" style="3" customWidth="1"/>
     <col min="7" max="7" width="14.825" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.5583333333333" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.9416666666667" style="3" customWidth="1"/>
-    <col min="10" max="10" width="23.15" style="3" customWidth="1"/>
+    <col min="8" max="8" width="44.7333333333333" style="3" customWidth="1"/>
+    <col min="9" max="9" width="72.8333333333333" style="3" customWidth="1"/>
+    <col min="10" max="10" width="77.0666666666667" style="3" customWidth="1"/>
     <col min="11" max="11" width="27.8166666666667" style="3" customWidth="1"/>
     <col min="12" max="12" width="13.0083333333333" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
@@ -1385,7 +1453,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" ht="27" spans="1:11">
+    <row r="4" spans="1:11">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -1407,19 +1475,25 @@
       <c r="G4" s="3">
         <v>1</v>
       </c>
+      <c r="H4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="J4" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C5" s="3" t="b">
         <v>1</v>
@@ -1431,13 +1505,19 @@
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G5" s="3">
         <v>2</v>
       </c>
+      <c r="H5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="6" ht="27" spans="1:7">
+    <row r="6" ht="27" spans="1:9">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1454,18 +1534,24 @@
         <v>0</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G6" s="3">
         <v>3</v>
       </c>
+      <c r="H6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:9">
       <c r="A7" s="3">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C7" s="3" t="b">
         <v>1</v>
@@ -1477,13 +1563,19 @@
         <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G7" s="3">
         <v>4</v>
       </c>
+      <c r="H7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:9">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1500,18 +1592,24 @@
         <v>0</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G8" s="3">
         <v>5</v>
       </c>
+      <c r="H8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:9">
       <c r="A9" s="3">
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C9" s="3" t="b">
         <v>1</v>
@@ -1523,18 +1621,24 @@
         <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G9" s="3">
         <v>6</v>
       </c>
+      <c r="H9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:9">
       <c r="A10" s="3">
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C10" s="3" t="b">
         <v>1</v>
@@ -1546,18 +1650,24 @@
         <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G10" s="3">
         <v>7</v>
       </c>
+      <c r="H10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:9">
       <c r="A11" s="3">
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C11" s="3" t="b">
         <v>1</v>
@@ -1566,13 +1676,19 @@
         <v>1</v>
       </c>
       <c r="E11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G11" s="3">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1580,35 +1696,87 @@
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C12" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D12" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="G12" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:9">
       <c r="A13" s="3">
         <v>9</v>
       </c>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="D13" s="3">
         <v>2</v>
       </c>
       <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="3">
+        <v>10</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" ht="27" spans="1:11">
+      <c r="A14" s="3">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
         <v>-1</v>
       </c>
-      <c r="G13" s="3">
+      <c r="F14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="3">
+        <v>11</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G15" s="3">
         <v>-1</v>
       </c>
     </row>
